--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.1612381060055</v>
+        <v>29.82164133333333</v>
       </c>
       <c r="H2">
-        <v>21.1612381060055</v>
+        <v>89.464924</v>
       </c>
       <c r="I2">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719764</v>
       </c>
       <c r="J2">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>144.3488934412332</v>
+        <v>242.4867439454053</v>
       </c>
       <c r="R2">
-        <v>144.3488934412332</v>
+        <v>2182.380695508647</v>
       </c>
       <c r="S2">
-        <v>0.0003224743143243141</v>
+        <v>0.0004882508766543768</v>
       </c>
       <c r="T2">
-        <v>0.0003224743143243141</v>
+        <v>0.0004882508766543771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.1612381060055</v>
+        <v>29.82164133333333</v>
       </c>
       <c r="H3">
-        <v>21.1612381060055</v>
+        <v>89.464924</v>
       </c>
       <c r="I3">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719764</v>
       </c>
       <c r="J3">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>5135.298648307823</v>
+        <v>7257.883670035679</v>
       </c>
       <c r="R3">
-        <v>5135.298648307823</v>
+        <v>65320.95303032111</v>
       </c>
       <c r="S3">
-        <v>0.01147221756249782</v>
+        <v>0.01461386303800692</v>
       </c>
       <c r="T3">
-        <v>0.01147221756249782</v>
+        <v>0.01461386303800692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.1612381060055</v>
+        <v>29.82164133333333</v>
       </c>
       <c r="H4">
-        <v>21.1612381060055</v>
+        <v>89.464924</v>
       </c>
       <c r="I4">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719764</v>
       </c>
       <c r="J4">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719765</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>1868.990813388771</v>
+        <v>3099.740079617051</v>
       </c>
       <c r="R4">
-        <v>1868.990813388771</v>
+        <v>27897.66071655346</v>
       </c>
       <c r="S4">
-        <v>0.004175311058212965</v>
+        <v>0.006241375452731878</v>
       </c>
       <c r="T4">
-        <v>0.004175311058212965</v>
+        <v>0.006241375452731882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.1612381060055</v>
+        <v>29.82164133333333</v>
       </c>
       <c r="H5">
-        <v>21.1612381060055</v>
+        <v>89.464924</v>
       </c>
       <c r="I5">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719764</v>
       </c>
       <c r="J5">
-        <v>0.01729269493478756</v>
+        <v>0.02335016309719765</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>592.0754554603687</v>
+        <v>996.601956427239</v>
       </c>
       <c r="R5">
-        <v>592.0754554603687</v>
+        <v>8969.417607845151</v>
       </c>
       <c r="S5">
-        <v>0.001322691999752452</v>
+        <v>0.002006673729804464</v>
       </c>
       <c r="T5">
-        <v>0.001322691999752452</v>
+        <v>0.002006673729804465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1150.18884135988</v>
+        <v>1160.126729666667</v>
       </c>
       <c r="H6">
-        <v>1150.18884135988</v>
+        <v>3480.380189</v>
       </c>
       <c r="I6">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342723</v>
       </c>
       <c r="J6">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>7845.877715994056</v>
+        <v>9433.261908574406</v>
       </c>
       <c r="R6">
-        <v>7845.877715994056</v>
+        <v>84899.35717716966</v>
       </c>
       <c r="S6">
-        <v>0.017527630288123</v>
+        <v>0.01899402137054043</v>
       </c>
       <c r="T6">
-        <v>0.017527630288123</v>
+        <v>0.01899402137054044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1150.18884135988</v>
+        <v>1160.126729666667</v>
       </c>
       <c r="H7">
-        <v>1150.18884135988</v>
+        <v>3480.380189</v>
       </c>
       <c r="I7">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342723</v>
       </c>
       <c r="J7">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>279121.8156870446</v>
+        <v>282347.4654632109</v>
       </c>
       <c r="R7">
-        <v>279121.8156870446</v>
+        <v>2541127.189168898</v>
       </c>
       <c r="S7">
-        <v>0.6235559828747955</v>
+        <v>0.5685110669991585</v>
       </c>
       <c r="T7">
-        <v>0.6235559828747955</v>
+        <v>0.5685110669991588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1150.18884135988</v>
+        <v>1160.126729666667</v>
       </c>
       <c r="H8">
-        <v>1150.18884135988</v>
+        <v>3480.380189</v>
       </c>
       <c r="I8">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342723</v>
       </c>
       <c r="J8">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342726</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>101586.3234180902</v>
+        <v>120586.6330825751</v>
       </c>
       <c r="R8">
-        <v>101586.3234180902</v>
+        <v>1085279.697743176</v>
       </c>
       <c r="S8">
-        <v>0.2269430627974531</v>
+        <v>0.2428030842321951</v>
       </c>
       <c r="T8">
-        <v>0.2269430627974531</v>
+        <v>0.2428030842321952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1150.18884135988</v>
+        <v>1160.126729666667</v>
       </c>
       <c r="H9">
-        <v>1150.18884135988</v>
+        <v>3480.380189</v>
       </c>
       <c r="I9">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342723</v>
       </c>
       <c r="J9">
-        <v>0.9399197084497847</v>
+        <v>0.9083721465342726</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>32181.41484454633</v>
+        <v>38769.98437363009</v>
       </c>
       <c r="R9">
-        <v>32181.41484454633</v>
+        <v>348929.8593626708</v>
       </c>
       <c r="S9">
-        <v>0.07189303248941289</v>
+        <v>0.07806397393237818</v>
       </c>
       <c r="T9">
-        <v>0.07189303248941289</v>
+        <v>0.07806397393237823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.248014630927313</v>
+        <v>0.2607933333333334</v>
       </c>
       <c r="H10">
-        <v>0.248014630927313</v>
+        <v>0.7823800000000001</v>
       </c>
       <c r="I10">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="J10">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>1.691802594548254</v>
+        <v>2.120571618973333</v>
       </c>
       <c r="R10">
-        <v>1.691802594548254</v>
+        <v>19.08514457076</v>
       </c>
       <c r="S10">
-        <v>3.779473944295606E-06</v>
+        <v>4.26980434116114E-06</v>
       </c>
       <c r="T10">
-        <v>3.779473944295606E-06</v>
+        <v>4.269804341161141E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.248014630927313</v>
+        <v>0.2607933333333334</v>
       </c>
       <c r="H11">
-        <v>0.248014630927313</v>
+        <v>0.7823800000000001</v>
       </c>
       <c r="I11">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="J11">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>60.18689419690154</v>
+        <v>63.47094226294224</v>
       </c>
       <c r="R11">
-        <v>60.18689419690154</v>
+        <v>571.2384803664801</v>
       </c>
       <c r="S11">
-        <v>0.0001344570573057941</v>
+        <v>0.0001277997415353067</v>
       </c>
       <c r="T11">
-        <v>0.0001344570573057941</v>
+        <v>0.0001277997415353067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.248014630927313</v>
+        <v>0.2607933333333334</v>
       </c>
       <c r="H12">
-        <v>0.248014630927313</v>
+        <v>0.7823800000000001</v>
       </c>
       <c r="I12">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="J12">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>21.90500690305091</v>
+        <v>27.10754712641112</v>
       </c>
       <c r="R12">
-        <v>21.90500690305091</v>
+        <v>243.9679241377</v>
       </c>
       <c r="S12">
-        <v>4.893561642858384E-05</v>
+        <v>5.458147292125759E-05</v>
       </c>
       <c r="T12">
-        <v>4.893561642858384E-05</v>
+        <v>5.458147292125761E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.248014630927313</v>
+        <v>0.2607933333333334</v>
       </c>
       <c r="H13">
-        <v>0.248014630927313</v>
+        <v>0.7823800000000001</v>
       </c>
       <c r="I13">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="J13">
-        <v>0.0002026744054627309</v>
+        <v>0.0002041995878070102</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>6.93926200496985</v>
+        <v>8.715387034471112</v>
       </c>
       <c r="R13">
-        <v>6.93926200496985</v>
+        <v>78.43848331024</v>
       </c>
       <c r="S13">
-        <v>1.550225778405732E-05</v>
+        <v>1.754856900928477E-05</v>
       </c>
       <c r="T13">
-        <v>1.550225778405732E-05</v>
+        <v>1.754856900928477E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.1115813358828</v>
+        <v>86.94000199999999</v>
       </c>
       <c r="H14">
-        <v>52.1115813358828</v>
+        <v>260.820006</v>
       </c>
       <c r="I14">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072281</v>
       </c>
       <c r="J14">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072282</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>355.4730145573435</v>
+        <v>706.9295002224678</v>
       </c>
       <c r="R14">
-        <v>355.4730145573435</v>
+        <v>6362.365502002211</v>
       </c>
       <c r="S14">
-        <v>0.000794123972116519</v>
+        <v>0.001423413678622248</v>
       </c>
       <c r="T14">
-        <v>0.000794123972116519</v>
+        <v>0.001423413678622248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.1115813358828</v>
+        <v>86.94000199999999</v>
       </c>
       <c r="H15">
-        <v>52.1115813358828</v>
+        <v>260.820006</v>
       </c>
       <c r="I15">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072281</v>
       </c>
       <c r="J15">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072282</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>12646.16615789582</v>
+        <v>21159.1445868328</v>
       </c>
       <c r="R15">
-        <v>12646.16615789582</v>
+        <v>190432.3012814952</v>
       </c>
       <c r="S15">
-        <v>0.02825143763404772</v>
+        <v>0.04260427075594612</v>
       </c>
       <c r="T15">
-        <v>0.02825143763404772</v>
+        <v>0.04260427075594614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.1115813358828</v>
+        <v>86.94000199999999</v>
       </c>
       <c r="H16">
-        <v>52.1115813358828</v>
+        <v>260.820006</v>
       </c>
       <c r="I16">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072281</v>
       </c>
       <c r="J16">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072282</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>4602.569391262885</v>
+        <v>9036.773184585276</v>
       </c>
       <c r="R16">
-        <v>4602.569391262885</v>
+        <v>81330.95866126749</v>
       </c>
       <c r="S16">
-        <v>0.01028210451216116</v>
+        <v>0.01819568508245512</v>
       </c>
       <c r="T16">
-        <v>0.01028210451216116</v>
+        <v>0.01819568508245513</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.1115813358828</v>
+        <v>86.94000199999999</v>
       </c>
       <c r="H17">
-        <v>52.1115813358828</v>
+        <v>260.820006</v>
       </c>
       <c r="I17">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072281</v>
       </c>
       <c r="J17">
-        <v>0.04258492220996495</v>
+        <v>0.06807349078072282</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>1458.042676881302</v>
+        <v>2905.426133877498</v>
       </c>
       <c r="R17">
-        <v>1458.042676881302</v>
+        <v>26148.83520489748</v>
       </c>
       <c r="S17">
-        <v>0.00325725609163955</v>
+        <v>0.00585012126369931</v>
       </c>
       <c r="T17">
-        <v>0.00325725609163955</v>
+        <v>0.005850121263699312</v>
       </c>
     </row>
   </sheetData>
